--- a/new_Consumo_mod2.xlsx
+++ b/new_Consumo_mod2.xlsx
@@ -618,8 +618,10 @@
       <c r="S2" t="n">
         <v>19040.84571808</v>
       </c>
-      <c r="T2" t="n">
-        <v>245268.50628192</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>R$ 245.268,51</t>
+        </is>
       </c>
       <c r="U2" t="n">
         <v>12.22308912</v>
@@ -672,8 +674,10 @@
       <c r="S3" t="n">
         <v>19333.11026912</v>
       </c>
-      <c r="T3" t="n">
-        <v>249033.21773088</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>R$ 249.033,22</t>
+        </is>
       </c>
       <c r="U3" t="n">
         <v>12.22308912</v>
@@ -730,8 +734,10 @@
       <c r="S4" t="n">
         <v>13610.22875184</v>
       </c>
-      <c r="T4" t="n">
-        <v>175315.76724816</v>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>R$ 175.315,77</t>
+        </is>
       </c>
       <c r="U4" t="n">
         <v>12.22308912</v>
@@ -788,8 +794,10 @@
       <c r="S5" t="n">
         <v>17482.354488768</v>
       </c>
-      <c r="T5" t="n">
-        <v>225193.304711232</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>R$ 225.193,30</t>
+        </is>
       </c>
       <c r="U5" t="n">
         <v>12.22308912</v>
@@ -846,8 +854,10 @@
       <c r="S6" t="n">
         <v>13556.14083168</v>
       </c>
-      <c r="T6" t="n">
-        <v>174619.05116832</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>R$ 174.619,05</t>
+        </is>
       </c>
       <c r="U6" t="n">
         <v>12.22308912</v>
@@ -904,8 +914,10 @@
       <c r="S7" t="n">
         <v>11763.837961536</v>
       </c>
-      <c r="T7" t="n">
-        <v>151532.080438464</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>R$ 151.532,08</t>
+        </is>
       </c>
       <c r="U7" t="n">
         <v>12.22308912</v>
@@ -962,8 +974,10 @@
       <c r="S8" t="n">
         <v>11672.230744896</v>
       </c>
-      <c r="T8" t="n">
-        <v>150352.071655104</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>R$ 150.352,07</t>
+        </is>
       </c>
       <c r="U8" t="n">
         <v>12.77244144</v>
@@ -1020,8 +1034,10 @@
       <c r="S9" t="n">
         <v>12616.59111744</v>
       </c>
-      <c r="T9" t="n">
-        <v>162516.54488256</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>R$ 162.516,54</t>
+        </is>
       </c>
       <c r="U9" t="n">
         <v>12.77244144</v>
@@ -1078,8 +1094,10 @@
       <c r="S10" t="n">
         <v>12467.07065664</v>
       </c>
-      <c r="T10" t="n">
-        <v>160590.54534336</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>R$ 160.590,55</t>
+        </is>
       </c>
       <c r="U10" t="n">
         <v>14.04745848</v>
@@ -1136,8 +1154,10 @@
       <c r="S11" t="n">
         <v>12414.72466368</v>
       </c>
-      <c r="T11" t="n">
-        <v>159916.26733632</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>R$ 159.916,27</t>
+        </is>
       </c>
       <c r="U11" t="n">
         <v>14.04745848</v>
@@ -1194,8 +1214,10 @@
       <c r="S12" t="n">
         <v>13553.1740804</v>
       </c>
-      <c r="T12" t="n">
-        <v>174580.8359196</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>R$ 174.580,84</t>
+        </is>
       </c>
       <c r="U12" t="n">
         <v>14.14640919857386</v>
@@ -1252,8 +1274,10 @@
       <c r="S13" t="n">
         <v>14888.6984264</v>
       </c>
-      <c r="T13" t="n">
-        <v>191783.9615736</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>R$ 191.783,96</t>
+        </is>
       </c>
       <c r="U13" t="n">
         <v>14.14805514909815</v>
@@ -1310,8 +1334,10 @@
       <c r="S14" t="n">
         <v>14223.7404104</v>
       </c>
-      <c r="T14" t="n">
-        <v>183218.5195896</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>R$ 183.218,52</t>
+        </is>
       </c>
       <c r="U14" t="n">
         <v>14.14487142666564</v>
@@ -1368,8 +1394,10 @@
       <c r="S15" t="n">
         <v>12109.7194064</v>
       </c>
-      <c r="T15" t="n">
-        <v>155987.4405936</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>R$ 155.987,44</t>
+        </is>
       </c>
       <c r="U15" t="n">
         <v>14.14492832601244</v>
@@ -1426,8 +1454,10 @@
       <c r="S16" t="n">
         <v>11510.6181972</v>
       </c>
-      <c r="T16" t="n">
-        <v>148270.3118028</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>R$ 148.270,31</t>
+        </is>
       </c>
       <c r="U16" t="n">
         <v>14.14118376755365</v>
@@ -1484,8 +1514,10 @@
       <c r="S17" t="n">
         <v>8877.7082016</v>
       </c>
-      <c r="T17" t="n">
-        <v>114355.3317984</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>R$ 114.355,33</t>
+        </is>
       </c>
       <c r="U17" t="n">
         <v>14.12491746521739</v>
@@ -1542,8 +1574,10 @@
       <c r="S18" t="n">
         <v>7051.441468319999</v>
       </c>
-      <c r="T18" t="n">
-        <v>90830.86653168</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>R$ 90.830,87</t>
+        </is>
       </c>
       <c r="U18" t="n">
         <v>14.04745848</v>
@@ -1600,8 +1634,10 @@
       <c r="S19" t="n">
         <v>8850.834976319999</v>
       </c>
-      <c r="T19" t="n">
-        <v>114009.17302368</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>R$ 114.009,17</t>
+        </is>
       </c>
       <c r="U19" t="n">
         <v>14.04745848</v>
@@ -1658,8 +1694,10 @@
       <c r="S20" t="n">
         <v>8550.93605832</v>
       </c>
-      <c r="T20" t="n">
-        <v>110146.12194168</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>R$ 110.146,12</t>
+        </is>
       </c>
       <c r="U20" t="n">
         <v>14.04745848</v>
@@ -1716,8 +1754,10 @@
       <c r="S21" t="n">
         <v>12306.7610532</v>
       </c>
-      <c r="T21" t="n">
-        <v>158525.5689468</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>R$ 158.525,57</t>
+        </is>
       </c>
       <c r="U21" t="n">
         <v>14.04745848</v>
@@ -1774,8 +1814,10 @@
       <c r="S22" t="n">
         <v>5460.8574852</v>
       </c>
-      <c r="T22" t="n">
-        <v>70342.2725148</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>R$ 70.342,27</t>
+        </is>
       </c>
       <c r="U22" t="n">
         <v>14.54855688</v>
@@ -1832,8 +1874,10 @@
       <c r="S23" t="n">
         <v>13569.12964368</v>
       </c>
-      <c r="T23" t="n">
-        <v>174786.36235632</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>R$ 174.786,36</t>
+        </is>
       </c>
       <c r="U23" t="n">
         <v>14.54855688</v>
@@ -1890,8 +1934,10 @@
       <c r="S24" t="n">
         <v>13251.1914054</v>
       </c>
-      <c r="T24" t="n">
-        <v>170690.9435946</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>R$ 170.690,94</t>
+        </is>
       </c>
       <c r="U24" t="n">
         <v>15.35681004</v>
@@ -1948,8 +1994,10 @@
       <c r="S25" t="n">
         <v>15553.31021816</v>
       </c>
-      <c r="T25" t="n">
-        <v>200344.94378184</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>R$ 200.344,94</t>
+        </is>
       </c>
       <c r="U25" t="n">
         <v>15.35681004</v>
@@ -2006,8 +2054,10 @@
       <c r="S26" t="n">
         <v>18261.36499368</v>
       </c>
-      <c r="T26" t="n">
-        <v>235227.87700632</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>R$ 235.227,88</t>
+        </is>
       </c>
       <c r="U26" t="n">
         <v>16.45180284</v>
@@ -2064,8 +2114,10 @@
       <c r="S27" t="n">
         <v>16798.97424548</v>
       </c>
-      <c r="T27" t="n">
-        <v>216390.56275452</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>R$ 216.390,56</t>
+        </is>
       </c>
       <c r="U27" t="n">
         <v>16.45180284</v>
@@ -2122,8 +2174,10 @@
       <c r="S28" t="n">
         <v>16366.00440824</v>
       </c>
-      <c r="T28" t="n">
-        <v>210813.40159176</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>R$ 210.813,40</t>
+        </is>
       </c>
       <c r="U28" t="n">
         <v>16.45180284</v>
@@ -2180,8 +2234,10 @@
       <c r="S29" t="n">
         <v>15309.634637204</v>
       </c>
-      <c r="T29" t="n">
-        <v>197206.115462796</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>R$ 197.206,12</t>
+        </is>
       </c>
       <c r="U29" t="n">
         <v>16.45180284</v>
@@ -2238,8 +2294,10 @@
       <c r="S30" t="n">
         <v>11330.01600636</v>
       </c>
-      <c r="T30" t="n">
-        <v>145943.94299364</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>R$ 145.943,94</t>
+        </is>
       </c>
       <c r="U30" t="n">
         <v>16.45180284</v>
@@ -2296,8 +2354,10 @@
       <c r="S31" t="n">
         <v>11613.809215312</v>
       </c>
-      <c r="T31" t="n">
-        <v>149599.533584688</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>R$ 149.599,53</t>
+        </is>
       </c>
       <c r="U31" t="n">
         <v>16.45180284</v>
@@ -2354,8 +2414,10 @@
       <c r="S32" t="n">
         <v>13036.37266392</v>
       </c>
-      <c r="T32" t="n">
-        <v>167923.82533608</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>R$ 167.923,83</t>
+        </is>
       </c>
       <c r="U32" t="n">
         <v>17.04291336</v>
@@ -2412,8 +2474,10 @@
       <c r="S33" t="n">
         <v>12071.84250336</v>
       </c>
-      <c r="T33" t="n">
-        <v>155499.54149664</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>R$ 155.499,54</t>
+        </is>
       </c>
       <c r="U33" t="n">
         <v>17.04291336</v>
@@ -2470,8 +2534,10 @@
       <c r="S34" t="n">
         <v>13670.13116448</v>
       </c>
-      <c r="T34" t="n">
-        <v>176087.38083552</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>R$ 176.087,38</t>
+        </is>
       </c>
       <c r="U34" t="n">
         <v>17.04291336</v>
@@ -2528,8 +2594,10 @@
       <c r="S35" t="n">
         <v>11408.97609672</v>
       </c>
-      <c r="T35" t="n">
-        <v>146961.04190328</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>R$ 146.961,04</t>
+        </is>
       </c>
       <c r="U35" t="n">
         <v>17.04291336</v>
@@ -2586,8 +2654,10 @@
       <c r="S36" t="n">
         <v>14666.28443568</v>
       </c>
-      <c r="T36" t="n">
-        <v>188919.00756432</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>R$ 188.919,01</t>
+        </is>
       </c>
       <c r="U36" t="n">
         <v>17.93932272</v>
@@ -2644,8 +2714,10 @@
       <c r="S37" t="n">
         <v>15187.1457384</v>
       </c>
-      <c r="T37" t="n">
-        <v>195628.3142616</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>R$ 195.628,31</t>
+        </is>
       </c>
       <c r="U37" t="n">
         <v>17.93932272</v>
@@ -2702,8 +2774,10 @@
       <c r="S38" t="n">
         <v>16515.75986352</v>
       </c>
-      <c r="T38" t="n">
-        <v>212742.42813648</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>R$ 212.742,43</t>
+        </is>
       </c>
       <c r="U38" t="n">
         <v>17.93932272</v>
@@ -2760,8 +2834,10 @@
       <c r="S39" t="n">
         <v>17384.79048624</v>
       </c>
-      <c r="T39" t="n">
-        <v>223936.56551376</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>R$ 223.936,57</t>
+        </is>
       </c>
       <c r="U39" t="n">
         <v>17.93932272</v>
@@ -2818,8 +2894,10 @@
       <c r="S40" t="n">
         <v>16508.79647712</v>
       </c>
-      <c r="T40" t="n">
-        <v>212652.73152288</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>R$ 212.652,73</t>
+        </is>
       </c>
       <c r="U40" t="n">
         <v>17.93932272</v>
@@ -2876,8 +2954,10 @@
       <c r="S41" t="n">
         <v>15646.7292408</v>
       </c>
-      <c r="T41" t="n">
-        <v>201548.2907592</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>R$ 201.548,29</t>
+        </is>
       </c>
       <c r="U41" t="n">
         <v>17.93932272</v>
@@ -2934,8 +3014,10 @@
       <c r="S42" t="n">
         <v>16475.3722224</v>
       </c>
-      <c r="T42" t="n">
-        <v>212222.1877776</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>R$ 212.222,19</t>
+        </is>
       </c>
       <c r="U42" t="n">
         <v>17.93932272</v>
@@ -2992,8 +3074,10 @@
       <c r="S43" t="n">
         <v>15372.37181664</v>
       </c>
-      <c r="T43" t="n">
-        <v>198014.24418336</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>R$ 198.014,24</t>
+        </is>
       </c>
       <c r="U43" t="n">
         <v>17.93932272</v>
@@ -3050,8 +3134,10 @@
       <c r="S44" t="n">
         <v>15854.23815552</v>
       </c>
-      <c r="T44" t="n">
-        <v>204221.24984448</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>R$ 204.221,25</t>
+        </is>
       </c>
       <c r="U44" t="n">
         <v>17.93932272</v>
@@ -3108,8 +3194,10 @@
       <c r="S45" t="n">
         <v>16944.730112</v>
       </c>
-      <c r="T45" t="n">
-        <v>218268.069888</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>R$ 218.268,07</t>
+        </is>
       </c>
       <c r="U45" t="n">
         <v>19.0046208</v>
@@ -3166,8 +3254,10 @@
       <c r="S46" t="n">
         <v>16288.186368</v>
       </c>
-      <c r="T46" t="n">
-        <v>209811.013632</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>R$ 209.811,01</t>
+        </is>
       </c>
       <c r="U46" t="n">
         <v>19.0046208</v>
@@ -3224,8 +3314,10 @@
       <c r="S47" t="n">
         <v>17523.0787584</v>
       </c>
-      <c r="T47" t="n">
-        <v>225717.8812416</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>R$ 225.717,88</t>
+        </is>
       </c>
       <c r="U47" t="n">
         <v>19.0046208</v>
@@ -3282,8 +3374,10 @@
       <c r="S48" t="n">
         <v>21950.6917376</v>
       </c>
-      <c r="T48" t="n">
-        <v>282750.7482624</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>R$ 282.750,75</t>
+        </is>
       </c>
       <c r="U48" t="n">
         <v>19.0046208</v>
@@ -3340,8 +3434,10 @@
       <c r="S49" t="n">
         <v>19522.63857616</v>
       </c>
-      <c r="T49" t="n">
-        <v>251474.56542384</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>R$ 251.474,57</t>
+        </is>
       </c>
       <c r="U49" t="n">
         <v>20.15343528</v>
@@ -3398,8 +3494,10 @@
       <c r="S50" t="n">
         <v>17692.09785376</v>
       </c>
-      <c r="T50" t="n">
-        <v>227895.04614624</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>R$ 227.895,05</t>
+        </is>
       </c>
       <c r="U50" t="n">
         <v>20.15343528</v>
@@ -3456,8 +3554,10 @@
       <c r="S51" t="n">
         <v>20118.73773448</v>
       </c>
-      <c r="T51" t="n">
-        <v>259153.02426552</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>R$ 259.153,02</t>
+        </is>
       </c>
       <c r="U51" t="n">
         <v>20.15343528</v>
@@ -3514,8 +3614,10 @@
       <c r="S52" t="n">
         <v>21447.05318175999</v>
       </c>
-      <c r="T52" t="n">
-        <v>276263.29081824</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>R$ 276.263,29</t>
+        </is>
       </c>
       <c r="U52" t="n">
         <v>20.15343528</v>
@@ -3572,8 +3674,10 @@
       <c r="S53" t="n">
         <v>13474.03136864</v>
       </c>
-      <c r="T53" t="n">
-        <v>173561.38463136</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>R$ 173.561,38</t>
+        </is>
       </c>
       <c r="U53" t="n">
         <v>20.15343528</v>
@@ -3630,8 +3734,10 @@
       <c r="S54" t="n">
         <v>17224.29300248</v>
       </c>
-      <c r="T54" t="n">
-        <v>221869.16899752</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>R$ 221.869,17</t>
+        </is>
       </c>
       <c r="U54" t="n">
         <v>20.15343528</v>
@@ -3688,8 +3794,10 @@
       <c r="S55" t="n">
         <v>18605.80365024</v>
       </c>
-      <c r="T55" t="n">
-        <v>239664.65234976</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>R$ 239.664,65</t>
+        </is>
       </c>
       <c r="U55" t="n">
         <v>20.15343528</v>
@@ -3746,8 +3854,10 @@
       <c r="S56" t="n">
         <v>19059.52741904</v>
       </c>
-      <c r="T56" t="n">
-        <v>245509.14858096</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>R$ 245.509,15</t>
+        </is>
       </c>
       <c r="U56" t="n">
         <v>20.15343528</v>
@@ -3804,8 +3914,10 @@
       <c r="S57" t="n">
         <v>18626.1429916</v>
       </c>
-      <c r="T57" t="n">
-        <v>239926.6470084</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>R$ 239.926,65</t>
+        </is>
       </c>
       <c r="U57" t="n">
         <v>20.15343528</v>
@@ -3862,8 +3974,10 @@
       <c r="S58" t="n">
         <v>19768.2752372</v>
       </c>
-      <c r="T58" t="n">
-        <v>254638.6547628</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>R$ 254.638,65</t>
+        </is>
       </c>
       <c r="U58" t="n">
         <v>20.15343528</v>
@@ -3920,8 +4034,10 @@
       <c r="S59" t="n">
         <v>18297.356148864</v>
       </c>
-      <c r="T59" t="n">
-        <v>235691.485451136</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>R$ 235.691,49</t>
+        </is>
       </c>
       <c r="U59" t="n">
         <v>21.13521696</v>
@@ -3978,8 +4094,10 @@
       <c r="S60" t="n">
         <v>28477.43044224</v>
       </c>
-      <c r="T60" t="n">
-        <v>366822.82555776</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>R$ 366.822,83</t>
+        </is>
       </c>
       <c r="U60" t="n">
         <v>21.13521696</v>
@@ -4036,8 +4154,10 @@
       <c r="S61" t="n">
         <v>21753.173387712</v>
       </c>
-      <c r="T61" t="n">
-        <v>280206.479412288</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>R$ 280.206,48</t>
+        </is>
       </c>
       <c r="U61" t="n">
         <v>21.13521696</v>
@@ -4094,8 +4214,10 @@
       <c r="S62" t="n">
         <v>19715.64900864</v>
       </c>
-      <c r="T62" t="n">
-        <v>253960.76699136</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>R$ 253.960,77</t>
+        </is>
       </c>
       <c r="U62" t="n">
         <v>21.13521696</v>
@@ -4152,8 +4274,10 @@
       <c r="S63" t="n">
         <v>23999.73352608</v>
       </c>
-      <c r="T63" t="n">
-        <v>309144.8184739201</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>R$ 309.144,82</t>
+        </is>
       </c>
       <c r="U63" t="n">
         <v>21.13521696</v>
@@ -4210,8 +4334,10 @@
       <c r="S64" t="n">
         <v>12741.664775424</v>
       </c>
-      <c r="T64" t="n">
-        <v>164127.640824576</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>R$ 164.127,64</t>
+        </is>
       </c>
       <c r="U64" t="n">
         <v>21.13521696</v>
@@ -4268,8 +4394,10 @@
       <c r="S65" t="n">
         <v>16886.93904768</v>
       </c>
-      <c r="T65" t="n">
-        <v>217523.65295232</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>R$ 217.523,65</t>
+        </is>
       </c>
       <c r="U65" t="n">
         <v>21.13521696</v>
@@ -4326,8 +4454,10 @@
       <c r="S66" t="n">
         <v>16765.52110272</v>
       </c>
-      <c r="T66" t="n">
-        <v>215959.64689728</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>R$ 215.959,65</t>
+        </is>
       </c>
       <c r="U66" t="n">
         <v>21.13521696</v>
@@ -4398,8 +4528,10 @@
       <c r="S67" t="n">
         <v>16617.7383908</v>
       </c>
-      <c r="T67" t="n">
-        <v>214056.0316092</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>R$ 214.056,03</t>
+        </is>
       </c>
       <c r="U67" t="n">
         <v>21.22939914799167</v>
@@ -4472,8 +4604,10 @@
       <c r="S68" t="n">
         <v>16407.0826248</v>
       </c>
-      <c r="T68" t="n">
-        <v>211342.5373752</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>R$ 211.342,54</t>
+        </is>
       </c>
       <c r="U68" t="n">
         <v>21.34126399830355</v>
@@ -4546,8 +4680,10 @@
       <c r="S69" t="n">
         <v>10756.36444</v>
       </c>
-      <c r="T69" t="n">
-        <v>138554.63556</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>R$ 138.554,64</t>
+        </is>
       </c>
       <c r="U69" t="n">
         <v>21.30954099661642</v>
@@ -4612,8 +4748,10 @@
       <c r="S70" t="n">
         <v>10274.58339648</v>
       </c>
-      <c r="T70" t="n">
-        <v>132348.72860352</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>R$ 132.348,73</t>
+        </is>
       </c>
       <c r="U70" t="n">
         <v>21.13521696</v>
@@ -4686,8 +4824,10 @@
       <c r="S71" t="n">
         <v>15394.318716192</v>
       </c>
-      <c r="T71" t="n">
-        <v>198296.946083808</v>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>R$ 198.296,95</t>
+        </is>
       </c>
       <c r="U71" t="n">
         <v>21.13521696</v>
@@ -4754,8 +4894,10 @@
       <c r="S72" t="n">
         <v>16678.5596016</v>
       </c>
-      <c r="T72" t="n">
-        <v>214839.4803984</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>R$ 214.839,48</t>
+        </is>
       </c>
       <c r="U72" t="n">
         <v>21.13521696</v>
@@ -4820,8 +4962,10 @@
       <c r="S73" t="n">
         <v>13244.40069888</v>
       </c>
-      <c r="T73" t="n">
-        <v>170603.47130112</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>R$ 170.603,47</t>
+        </is>
       </c>
       <c r="U73" t="n">
         <v>21.13521696</v>
@@ -4886,8 +5030,10 @@
       <c r="S74" t="n">
         <v>18978.988428</v>
       </c>
-      <c r="T74" t="n">
-        <v>244471.711572</v>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>R$ 244.471,71</t>
+        </is>
       </c>
       <c r="U74" t="n">
         <v>21.1389288</v>
@@ -4952,8 +5098,10 @@
       <c r="S75" t="n">
         <v>17165.604752</v>
       </c>
-      <c r="T75" t="n">
-        <v>221113.195248</v>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>R$ 221.113,20</t>
+        </is>
       </c>
       <c r="U75" t="n">
         <v>21.1389288</v>
@@ -5018,8 +5166,10 @@
       <c r="S76" t="n">
         <v>17746.5439568</v>
       </c>
-      <c r="T76" t="n">
-        <v>228596.3760432</v>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>R$ 228.596,38</t>
+        </is>
       </c>
       <c r="U76" t="n">
         <v>21.1389288</v>
@@ -5084,8 +5234,10 @@
       <c r="S77" t="n">
         <v>14500.5051232</v>
       </c>
-      <c r="T77" t="n">
-        <v>186783.5748768</v>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>R$ 186.783,57</t>
+        </is>
       </c>
       <c r="U77" t="n">
         <v>21.1389288</v>
@@ -5150,8 +5302,10 @@
       <c r="S78" t="n">
         <v>15920.0317112</v>
       </c>
-      <c r="T78" t="n">
-        <v>205068.7482888</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>R$ 205.068,75</t>
+        </is>
       </c>
       <c r="U78" t="n">
         <v>21.1389288</v>
@@ -5216,8 +5370,10 @@
       <c r="S79" t="n">
         <v>12775.739292</v>
       </c>
-      <c r="T79" t="n">
-        <v>164566.560708</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>R$ 164.566,56</t>
+        </is>
       </c>
       <c r="U79" t="n">
         <v>21.1389288</v>
@@ -5282,8 +5438,10 @@
       <c r="S80" t="n">
         <v>15521.2514096</v>
       </c>
-      <c r="T80" t="n">
-        <v>199931.9885904</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>R$ 199.931,99</t>
+        </is>
       </c>
       <c r="U80" t="n">
         <v>21.1389288</v>
@@ -5348,8 +5506,10 @@
       <c r="S81" t="n">
         <v>16407.4298576</v>
       </c>
-      <c r="T81" t="n">
-        <v>211347.0101424</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>R$ 211.347,01</t>
+        </is>
       </c>
       <c r="U81" t="n">
         <v>21.1389288</v>
@@ -5414,8 +5574,10 @@
       <c r="S82" t="n">
         <v>18069.8349832</v>
       </c>
-      <c r="T82" t="n">
-        <v>232760.7450168</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>R$ 232.760,75</t>
+        </is>
       </c>
       <c r="U82" t="n">
         <v>21.1389288</v>
@@ -5480,8 +5642,10 @@
       <c r="S83" t="n">
         <v>17415.0475744</v>
       </c>
-      <c r="T83" t="n">
-        <v>224326.3124256</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>R$ 224.326,31</t>
+        </is>
       </c>
       <c r="U83" t="n">
         <v>21.1389288</v>
@@ -5546,8 +5710,10 @@
       <c r="S84" t="n">
         <v>17913.77901268343</v>
       </c>
-      <c r="T84" t="n">
-        <v>230750.5604193464</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>R$ 230.750,56</t>
+        </is>
       </c>
       <c r="U84" t="n">
         <v>22.5012735660016</v>
@@ -5612,8 +5778,10 @@
       <c r="S85" t="n">
         <v>18471.01894491609</v>
       </c>
-      <c r="T85" t="n">
-        <v>237928.4666869009</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>R$ 237.928,47</t>
+        </is>
       </c>
       <c r="U85" t="n">
         <v>22.5012735660016</v>
@@ -5690,8 +5858,10 @@
       <c r="S86" t="n">
         <v>17883.5654776</v>
       </c>
-      <c r="T86" t="n">
-        <v>230361.3745224</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>R$ 230.361,37</t>
+        </is>
       </c>
       <c r="U86" t="n">
         <v>22.92381077942084</v>
@@ -5768,8 +5938,10 @@
       <c r="S87" t="n">
         <v>18211.36059687167</v>
       </c>
-      <c r="T87" t="n">
-        <v>234583.7615140621</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>R$ 234.583,76</t>
+        </is>
       </c>
       <c r="U87" t="n">
         <v>22.755239258324</v>
@@ -5846,8 +6018,10 @@
       <c r="S88" t="n">
         <v>23235.6202304</v>
       </c>
-      <c r="T88" t="n">
-        <v>299302.1397696</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>R$ 299.302,14</t>
+        </is>
       </c>
       <c r="U88" t="n">
         <v>23.12820800321459</v>
@@ -5924,8 +6098,10 @@
       <c r="S89" t="n">
         <v>20821.7039104</v>
       </c>
-      <c r="T89" t="n">
-        <v>268208.0560896</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>R$ 268.208,06</t>
+        </is>
       </c>
       <c r="U89" t="n">
         <v>22.85929055566352</v>
@@ -6002,8 +6178,10 @@
       <c r="S90" t="n">
         <v>18703.1033236</v>
       </c>
-      <c r="T90" t="n">
-        <v>240917.9866764</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>R$ 240.917,99</t>
+        </is>
       </c>
       <c r="U90" t="n">
         <v>22.82717326856168</v>
@@ -6080,8 +6258,10 @@
       <c r="S91" t="n">
         <v>20549.8688948</v>
       </c>
-      <c r="T91" t="n">
-        <v>264706.5011052</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>R$ 264.706,50</t>
+        </is>
       </c>
       <c r="U91" t="n">
         <v>23.13665773142208</v>
@@ -6158,8 +6338,10 @@
       <c r="S92" t="n">
         <v>18833.5519148</v>
       </c>
-      <c r="T92" t="n">
-        <v>242598.3180852</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>R$ 242.598,32</t>
+        </is>
       </c>
       <c r="U92" t="n">
         <v>23.08261827642245</v>
@@ -6236,8 +6418,10 @@
       <c r="S93" t="n">
         <v>18693.7950352</v>
       </c>
-      <c r="T93" t="n">
-        <v>240798.0849648</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>R$ 240.798,08</t>
+        </is>
       </c>
       <c r="U93" t="n">
         <v>23.10478650592977</v>
@@ -6314,8 +6498,10 @@
       <c r="S94" t="n">
         <v>17748.8521184</v>
       </c>
-      <c r="T94" t="n">
-        <v>228626.1078816</v>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>R$ 228.626,11</t>
+        </is>
       </c>
       <c r="U94" t="n">
         <v>23.08888183009493</v>
@@ -6392,8 +6578,10 @@
       <c r="S95" t="n">
         <v>18058.695438</v>
       </c>
-      <c r="T95" t="n">
-        <v>232617.254562</v>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>R$ 232.617,25</t>
+        </is>
       </c>
       <c r="U95" t="n">
         <v>23.09314549409312</v>
@@ -6470,8 +6658,10 @@
       <c r="S96" t="n">
         <v>22594.7502292</v>
       </c>
-      <c r="T96" t="n">
-        <v>291046.9797708</v>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>R$ 291.046,98</t>
+        </is>
       </c>
       <c r="U96" t="n">
         <v>25.73814819338521</v>
@@ -6548,8 +6738,10 @@
       <c r="S97" t="n">
         <v>21485.2448996</v>
       </c>
-      <c r="T97" t="n">
-        <v>276755.2451004</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>R$ 276.755,25</t>
+        </is>
       </c>
       <c r="U97" t="n">
         <v>25.94499344711728</v>
@@ -6626,8 +6818,10 @@
       <c r="S98" t="n">
         <v>18989.5069884</v>
       </c>
-      <c r="T98" t="n">
-        <v>244607.2030116</v>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>R$ 244.607,20</t>
+        </is>
       </c>
       <c r="U98" t="n">
         <v>26.54158018789062</v>
@@ -6708,8 +6902,10 @@
       <c r="S99" t="n">
         <v>16905.7089256</v>
       </c>
-      <c r="T99" t="n">
-        <v>217765.4310744</v>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>R$ 217.765,43</t>
+        </is>
       </c>
       <c r="U99" t="n">
         <v>25.88439689461548</v>
@@ -6790,8 +6986,10 @@
       <c r="S100" t="n">
         <v>22835.6577524</v>
       </c>
-      <c r="T100" t="n">
-        <v>294150.1522476</v>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>R$ 294.150,15</t>
+        </is>
       </c>
       <c r="U100" t="n">
         <v>25.9689372514876</v>
@@ -6872,8 +7070,10 @@
       <c r="S101" t="n">
         <v>20681.6041204</v>
       </c>
-      <c r="T101" t="n">
-        <v>266403.4058796</v>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>R$ 266.403,41</t>
+        </is>
       </c>
       <c r="U101" t="n">
         <v>25.97030667572627</v>
@@ -6950,8 +7150,10 @@
       <c r="S102" t="n">
         <v>23442.4996596</v>
       </c>
-      <c r="T102" t="n">
-        <v>301966.9903404</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>R$ 301.966,99</t>
+        </is>
       </c>
       <c r="U102" t="n">
         <v>25.96895341764706</v>
@@ -7032,8 +7234,10 @@
       <c r="S103" t="n">
         <v>24231.3290148</v>
       </c>
-      <c r="T103" t="n">
-        <v>312128.0409852</v>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>R$ 312.128,04</t>
+        </is>
       </c>
       <c r="U103" t="n">
         <v>25.96739109693844</v>
@@ -7114,8 +7318,10 @@
       <c r="S104" t="n">
         <v>22537.825662</v>
       </c>
-      <c r="T104" t="n">
-        <v>290313.724338</v>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>R$ 290.313,72</t>
+        </is>
       </c>
       <c r="U104" t="n">
         <v>26.56361280428219</v>
@@ -7192,8 +7398,10 @@
       <c r="S105" t="n">
         <v>23368.4122828</v>
       </c>
-      <c r="T105" t="n">
-        <v>301012.6577172</v>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>R$ 301.012,66</t>
+        </is>
       </c>
       <c r="U105" t="n">
         <v>25.96503560055206</v>
@@ -7270,8 +7478,10 @@
       <c r="S106" t="n">
         <v>24536.528636</v>
       </c>
-      <c r="T106" t="n">
-        <v>316059.371364</v>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>R$ 316.059,37</t>
+        </is>
       </c>
       <c r="U106" t="n">
         <v>26.18553201027341</v>
@@ -7352,8 +7562,10 @@
       <c r="S107" t="n">
         <v>24105.8763976</v>
       </c>
-      <c r="T107" t="n">
-        <v>310512.0636024</v>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>R$ 310.512,06</t>
+        </is>
       </c>
       <c r="U107" t="n">
         <v>26.06497637894737</v>
@@ -7434,8 +7646,10 @@
       <c r="S108" t="n">
         <v>28150.588132</v>
       </c>
-      <c r="T108" t="n">
-        <v>362612.711868</v>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>R$ 362.612,71</t>
+        </is>
       </c>
       <c r="U108" t="n">
         <v>28.75596446217288</v>
@@ -7516,8 +7730,10 @@
       <c r="S109" t="n">
         <v>29856.6732708</v>
       </c>
-      <c r="T109" t="n">
-        <v>384589.0967292</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>R$ 384.589,10</t>
+        </is>
       </c>
       <c r="U109" t="n">
         <v>28.86222114290432</v>
@@ -7598,8 +7814,10 @@
       <c r="S110" t="n">
         <v>30403.6729908</v>
       </c>
-      <c r="T110" t="n">
-        <v>391635.0970092</v>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>R$ 391.635,10</t>
+        </is>
       </c>
       <c r="U110" t="n">
         <v>28.75230137355554</v>
@@ -7680,8 +7898,10 @@
       <c r="S111" t="n">
         <v>29526.0990004</v>
       </c>
-      <c r="T111" t="n">
-        <v>380330.9109996001</v>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>R$ 380.330,91</t>
+        </is>
       </c>
       <c r="U111" t="n">
         <v>29.03954424674354</v>
@@ -7762,8 +7982,10 @@
       <c r="S112" t="n">
         <v>29721.51398399999</v>
       </c>
-      <c r="T112" t="n">
-        <v>382848.086016</v>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>R$ 382.848,09</t>
+        </is>
       </c>
       <c r="U112" t="n">
         <v>29.04765447769347</v>
@@ -7844,8 +8066,10 @@
       <c r="S113" t="n">
         <v>28239.0093076</v>
       </c>
-      <c r="T113" t="n">
-        <v>363751.6806924</v>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>R$ 363.751,68</t>
+        </is>
       </c>
       <c r="U113" t="n">
         <v>28.78693262839506</v>
@@ -7900,8 +8124,10 @@
       <c r="S114" t="n">
         <v>0</v>
       </c>
-      <c r="T114" t="n">
-        <v>0</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
       </c>
       <c r="U114" t="n">
         <v>0</v>
@@ -7940,7 +8166,11 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$ </t>
+        </is>
+      </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
@@ -7970,7 +8200,11 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$ </t>
+        </is>
+      </c>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
